--- a/part2/tables-2/results_VER_part-2.xlsx
+++ b/part2/tables-2/results_VER_part-2.xlsx
@@ -429,3330 +429,3330 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>0.00615</v>
+        <v>0.023898</v>
       </c>
       <c r="B2">
-        <v>0.004948</v>
+        <v>0.08387600000000001</v>
       </c>
       <c r="C2">
-        <v>0.003855</v>
+        <v>0.077421</v>
       </c>
       <c r="D2">
-        <v>0.002334</v>
+        <v>0.183819</v>
       </c>
       <c r="E2">
-        <v>0.012121</v>
+        <v>0.173397</v>
       </c>
       <c r="F2">
-        <v>0.002176</v>
+        <v>0.021901</v>
       </c>
       <c r="G2">
-        <v>0.002217</v>
+        <v>0.020403</v>
       </c>
       <c r="H2">
-        <v>0.005892</v>
+        <v>0.019861</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>0.003149</v>
+        <v>0.012234</v>
       </c>
       <c r="B3">
-        <v>0.001212</v>
+        <v>0.017302</v>
       </c>
       <c r="C3">
-        <v>0.000795</v>
+        <v>0.01398</v>
       </c>
       <c r="D3">
-        <v>0.00069</v>
+        <v>0.032502</v>
       </c>
       <c r="E3">
-        <v>0.0027</v>
+        <v>0.0362</v>
       </c>
       <c r="F3">
-        <v>0.0007739999999999999</v>
+        <v>0.006809</v>
       </c>
       <c r="G3">
-        <v>0.000536</v>
+        <v>0.005933</v>
       </c>
       <c r="H3">
-        <v>0.001363</v>
+        <v>0.005068</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>0.001764</v>
+        <v>0.006321</v>
       </c>
       <c r="B4">
-        <v>0.000293</v>
+        <v>0.003263</v>
       </c>
       <c r="C4">
-        <v>0.000137</v>
+        <v>0.002083</v>
       </c>
       <c r="D4">
-        <v>0.000244</v>
+        <v>0.005639</v>
       </c>
       <c r="E4">
-        <v>0.000535</v>
+        <v>0.005967</v>
       </c>
       <c r="F4">
-        <v>0.00024</v>
+        <v>0.001863</v>
       </c>
       <c r="G4">
-        <v>0.000124</v>
+        <v>0.001362</v>
       </c>
       <c r="H4">
-        <v>0.000322</v>
+        <v>0.001482</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>0.000891</v>
+        <v>0.003462</v>
       </c>
       <c r="B5">
-        <v>8.000000000000001E-05</v>
+        <v>0.000669</v>
       </c>
       <c r="C5">
-        <v>2.3E-05</v>
+        <v>0.000218</v>
       </c>
       <c r="D5">
-        <v>9.2E-05</v>
+        <v>0.000908</v>
       </c>
       <c r="E5">
-        <v>9.899999999999999E-05</v>
+        <v>0.000935</v>
       </c>
       <c r="F5">
-        <v>7.7E-05</v>
+        <v>0.000575</v>
       </c>
       <c r="G5">
-        <v>3.6E-05</v>
+        <v>0.000375</v>
       </c>
       <c r="H5">
-        <v>9.500000000000001E-05</v>
+        <v>0.000552</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>0.005868</v>
+        <v>0.029379</v>
       </c>
       <c r="B6">
-        <v>0.004173</v>
+        <v>0.065481</v>
       </c>
       <c r="C6">
-        <v>0.002717</v>
+        <v>0.055029</v>
       </c>
       <c r="D6">
-        <v>0.001677</v>
+        <v>0.121658</v>
       </c>
       <c r="E6">
-        <v>0.008786</v>
+        <v>0.142983</v>
       </c>
       <c r="F6">
-        <v>0.002088</v>
+        <v>0.021749</v>
       </c>
       <c r="G6">
-        <v>0.002566</v>
+        <v>0.023748</v>
       </c>
       <c r="H6">
-        <v>0.005747</v>
+        <v>0.017268</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>0.002934</v>
+        <v>0.019388</v>
       </c>
       <c r="B7">
-        <v>0.001062</v>
+        <v>0.015438</v>
       </c>
       <c r="C7">
-        <v>0.000536</v>
+        <v>0.010502</v>
       </c>
       <c r="D7">
-        <v>0.000429</v>
+        <v>0.023183</v>
       </c>
       <c r="E7">
-        <v>0.001923</v>
+        <v>0.032191</v>
       </c>
       <c r="F7">
-        <v>0.000834</v>
+        <v>0.008505</v>
       </c>
       <c r="G7">
-        <v>0.000711</v>
+        <v>0.008713</v>
       </c>
       <c r="H7">
-        <v>0.001412</v>
+        <v>0.004598</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>0.002402</v>
+        <v>0.011025</v>
       </c>
       <c r="B8">
-        <v>0.00045</v>
+        <v>0.004843</v>
       </c>
       <c r="C8">
-        <v>0.000179</v>
+        <v>0.00265</v>
       </c>
       <c r="D8">
-        <v>0.000307</v>
+        <v>0.00685</v>
       </c>
       <c r="E8">
-        <v>0.000745</v>
+        <v>0.009082</v>
       </c>
       <c r="F8">
-        <v>0.000368</v>
+        <v>0.002937</v>
       </c>
       <c r="G8">
-        <v>0.000269</v>
+        <v>0.002885</v>
       </c>
       <c r="H8">
-        <v>0.000563</v>
+        <v>0.002464</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>0.00107</v>
+        <v>0.006425</v>
       </c>
       <c r="B9">
-        <v>0.000106</v>
+        <v>0.000964</v>
       </c>
       <c r="C9">
-        <v>2.8E-05</v>
+        <v>0.000306</v>
       </c>
       <c r="D9">
-        <v>9.000000000000001E-05</v>
+        <v>0.001137</v>
       </c>
       <c r="E9">
-        <v>0.000142</v>
+        <v>0.001478</v>
       </c>
       <c r="F9">
-        <v>0.000108</v>
+        <v>0.000831</v>
       </c>
       <c r="G9">
-        <v>6.1E-05</v>
+        <v>0.000722</v>
       </c>
       <c r="H9">
-        <v>0.000128</v>
+        <v>0.000652</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>0.000602</v>
+        <v>0.003015</v>
       </c>
       <c r="B10">
-        <v>3.7E-05</v>
+        <v>0.000287</v>
       </c>
       <c r="C10">
-        <v>1E-05</v>
+        <v>4.2E-05</v>
       </c>
       <c r="D10">
-        <v>5E-05</v>
+        <v>0.00028</v>
       </c>
       <c r="E10">
-        <v>3.7E-05</v>
+        <v>0.00032</v>
       </c>
       <c r="F10">
-        <v>3.6E-05</v>
+        <v>0.000297</v>
       </c>
       <c r="G10">
-        <v>2E-05</v>
+        <v>0.000211</v>
       </c>
       <c r="H10">
-        <v>4.4E-05</v>
+        <v>0.000327</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>0.002797</v>
+        <v>0.022581</v>
       </c>
       <c r="B11">
-        <v>0.001448</v>
+        <v>0.018846</v>
       </c>
       <c r="C11">
-        <v>0.00062</v>
+        <v>0.010096</v>
       </c>
       <c r="D11">
-        <v>0.000549</v>
+        <v>0.024257</v>
       </c>
       <c r="E11">
-        <v>0.002132</v>
+        <v>0.036014</v>
       </c>
       <c r="F11">
-        <v>0.001073</v>
+        <v>0.012054</v>
       </c>
       <c r="G11">
-        <v>0.001336</v>
+        <v>0.013678</v>
       </c>
       <c r="H11">
-        <v>0.002148</v>
+        <v>0.008225</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>0.001691</v>
+        <v>0.013655</v>
       </c>
       <c r="B12">
-        <v>0.000451</v>
+        <v>0.005604</v>
       </c>
       <c r="C12">
-        <v>0.000164</v>
+        <v>0.0026</v>
       </c>
       <c r="D12">
-        <v>0.000211</v>
+        <v>0.007016</v>
       </c>
       <c r="E12">
-        <v>0.0006669999999999999</v>
+        <v>0.009946999999999999</v>
       </c>
       <c r="F12">
-        <v>0.000434</v>
+        <v>0.004251</v>
       </c>
       <c r="G12">
-        <v>0.00035</v>
+        <v>0.004241</v>
       </c>
       <c r="H12">
-        <v>0.000594</v>
+        <v>0.002563</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>0.000943</v>
+        <v>0.00761</v>
       </c>
       <c r="B13">
-        <v>0.000143</v>
+        <v>0.001499</v>
       </c>
       <c r="C13">
-        <v>3.9E-05</v>
+        <v>0.00049</v>
       </c>
       <c r="D13">
-        <v>9.399999999999999E-05</v>
+        <v>0.001722</v>
       </c>
       <c r="E13">
-        <v>0.000193</v>
+        <v>0.002327</v>
       </c>
       <c r="F13">
-        <v>0.000154</v>
+        <v>0.001316</v>
       </c>
       <c r="G13">
-        <v>9.899999999999999E-05</v>
+        <v>0.001233</v>
       </c>
       <c r="H13">
-        <v>0.000173</v>
+        <v>0.000897</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>0.000411</v>
+        <v>0.003316</v>
       </c>
       <c r="B14">
-        <v>4.7E-05</v>
+        <v>0.000423</v>
       </c>
       <c r="C14">
-        <v>9E-06</v>
+        <v>6.600000000000001E-05</v>
       </c>
       <c r="D14">
-        <v>5E-05</v>
+        <v>0.00041</v>
       </c>
       <c r="E14">
-        <v>5.5E-05</v>
+        <v>0.00055</v>
       </c>
       <c r="F14">
-        <v>4.7E-05</v>
+        <v>0.000409</v>
       </c>
       <c r="G14">
-        <v>3E-05</v>
+        <v>0.00037</v>
       </c>
       <c r="H14">
-        <v>5.4E-05</v>
+        <v>0.000373</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>0.000215</v>
+        <v>0.002149</v>
       </c>
       <c r="B15">
-        <v>2.7E-05</v>
+        <v>0.000248</v>
       </c>
       <c r="C15">
-        <v>7E-06</v>
+        <v>3.1E-05</v>
       </c>
       <c r="D15">
-        <v>3.9E-05</v>
+        <v>0.000202</v>
       </c>
       <c r="E15">
-        <v>2.9E-05</v>
+        <v>0.000297</v>
       </c>
       <c r="F15">
-        <v>2.2E-05</v>
+        <v>0.000244</v>
       </c>
       <c r="G15">
-        <v>1.7E-05</v>
+        <v>0.000241</v>
       </c>
       <c r="H15">
-        <v>2.7E-05</v>
+        <v>0.000257</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>0.001588</v>
+        <v>0.015863</v>
       </c>
       <c r="B16">
-        <v>0.000454</v>
+        <v>0.006283</v>
       </c>
       <c r="C16">
-        <v>0.000164</v>
+        <v>0.002897</v>
       </c>
       <c r="D16">
-        <v>0.000195</v>
+        <v>0.007979</v>
       </c>
       <c r="E16">
-        <v>0.0006579999999999999</v>
+        <v>0.010991</v>
       </c>
       <c r="F16">
-        <v>0.000449</v>
+        <v>0.004973</v>
       </c>
       <c r="G16">
-        <v>0.000372</v>
+        <v>0.004795</v>
       </c>
       <c r="H16">
-        <v>0.000594</v>
+        <v>0.002678</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>0.001304</v>
+        <v>0.011696</v>
       </c>
       <c r="B17">
-        <v>0.000177</v>
+        <v>0.001975</v>
       </c>
       <c r="C17">
-        <v>4.9E-05</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="D17">
-        <v>0.000106</v>
+        <v>0.00227</v>
       </c>
       <c r="E17">
-        <v>0.000236</v>
+        <v>0.003041</v>
       </c>
       <c r="F17">
-        <v>0.000193</v>
+        <v>0.001749</v>
       </c>
       <c r="G17">
-        <v>0.000134</v>
+        <v>0.00166</v>
       </c>
       <c r="H17">
-        <v>0.000216</v>
+        <v>0.001153</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>0.000779</v>
+        <v>0.006986</v>
       </c>
       <c r="B18">
-        <v>6.7E-05</v>
+        <v>0.0006489999999999999</v>
       </c>
       <c r="C18">
-        <v>1.2E-05</v>
+        <v>0.000116</v>
       </c>
       <c r="D18">
-        <v>5.8E-05</v>
+        <v>0.000668</v>
       </c>
       <c r="E18">
-        <v>8.000000000000001E-05</v>
+        <v>0.000857</v>
       </c>
       <c r="F18">
-        <v>7.2E-05</v>
+        <v>0.000627</v>
       </c>
       <c r="G18">
-        <v>4.8E-05</v>
+        <v>0.00058</v>
       </c>
       <c r="H18">
-        <v>7.6E-05</v>
+        <v>0.000512</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>0.000398</v>
+        <v>0.003566</v>
       </c>
       <c r="B19">
-        <v>3.2E-05</v>
+        <v>0.000295</v>
       </c>
       <c r="C19">
-        <v>6E-06</v>
+        <v>2.6E-05</v>
       </c>
       <c r="D19">
-        <v>4.1E-05</v>
+        <v>0.000261</v>
       </c>
       <c r="E19">
-        <v>3.4E-05</v>
+        <v>0.000337</v>
       </c>
       <c r="F19">
-        <v>3.1E-05</v>
+        <v>0.0003</v>
       </c>
       <c r="G19">
-        <v>2.2E-05</v>
+        <v>0.000274</v>
       </c>
       <c r="H19">
-        <v>3.4E-05</v>
+        <v>0.000303</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>0.00221</v>
+        <v>0.022074</v>
       </c>
       <c r="B20">
-        <v>0.000612</v>
+        <v>0.007860000000000001</v>
       </c>
       <c r="C20">
-        <v>0.000212</v>
+        <v>0.00307</v>
       </c>
       <c r="D20">
-        <v>0.000261</v>
+        <v>0.009351999999999999</v>
       </c>
       <c r="E20">
-        <v>0.000818</v>
+        <v>0.012999</v>
       </c>
       <c r="F20">
-        <v>0.000568</v>
+        <v>0.006382</v>
       </c>
       <c r="G20">
-        <v>0.000565</v>
+        <v>0.006511</v>
       </c>
       <c r="H20">
-        <v>0.000846</v>
+        <v>0.004054</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>0.001128</v>
+        <v>0.012619</v>
       </c>
       <c r="B21">
-        <v>0.000224</v>
+        <v>0.002809</v>
       </c>
       <c r="C21">
-        <v>6.4E-05</v>
+        <v>0.000897</v>
       </c>
       <c r="D21">
-        <v>0.000119</v>
+        <v>0.003279</v>
       </c>
       <c r="E21">
-        <v>0.000293</v>
+        <v>0.004247</v>
       </c>
       <c r="F21">
-        <v>0.000245</v>
+        <v>0.002542</v>
       </c>
       <c r="G21">
-        <v>0.000188</v>
+        <v>0.002393</v>
       </c>
       <c r="H21">
-        <v>0.000276</v>
+        <v>0.001587</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>0.00072</v>
+        <v>0.008056000000000001</v>
       </c>
       <c r="B22">
-        <v>9.1E-05</v>
+        <v>0.001013</v>
       </c>
       <c r="C22">
-        <v>1.8E-05</v>
+        <v>0.000217</v>
       </c>
       <c r="D22">
-        <v>6.7E-05</v>
+        <v>0.001097</v>
       </c>
       <c r="E22">
-        <v>0.000112</v>
+        <v>0.00137</v>
       </c>
       <c r="F22">
-        <v>0.000102</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="G22">
-        <v>7.2E-05</v>
+        <v>0.000917</v>
       </c>
       <c r="H22">
-        <v>0.000103</v>
+        <v>0.000712</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>0.000378</v>
+        <v>0.004231</v>
       </c>
       <c r="B23">
-        <v>4.2E-05</v>
+        <v>0.000423</v>
       </c>
       <c r="C23">
-        <v>5E-06</v>
+        <v>4.6E-05</v>
       </c>
       <c r="D23">
-        <v>4.5E-05</v>
+        <v>0.000406</v>
       </c>
       <c r="E23">
-        <v>4.7E-05</v>
+        <v>0.00051</v>
       </c>
       <c r="F23">
-        <v>4.2E-05</v>
+        <v>0.000418</v>
       </c>
       <c r="G23">
-        <v>3.1E-05</v>
+        <v>0.000405</v>
       </c>
       <c r="H23">
-        <v>4.3E-05</v>
+        <v>0.000376</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>0.001462</v>
+        <v>0.023636</v>
       </c>
       <c r="B24">
-        <v>0.000624</v>
+        <v>0.010492</v>
       </c>
       <c r="C24">
-        <v>0.000207</v>
+        <v>0.004129</v>
       </c>
       <c r="D24">
-        <v>0.000258</v>
+        <v>0.013691</v>
       </c>
       <c r="E24">
-        <v>0.0008050000000000001</v>
+        <v>0.016536</v>
       </c>
       <c r="F24">
-        <v>0.000587</v>
+        <v>0.009112</v>
       </c>
       <c r="G24">
-        <v>0.000627</v>
+        <v>0.008244</v>
       </c>
       <c r="H24">
-        <v>0.00084</v>
+        <v>0.004878</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>0.001034</v>
+        <v>0.016717</v>
       </c>
       <c r="B25">
-        <v>0.000291</v>
+        <v>0.004479</v>
       </c>
       <c r="C25">
-        <v>8.2E-05</v>
+        <v>0.001479</v>
       </c>
       <c r="D25">
-        <v>0.000143</v>
+        <v>0.005561</v>
       </c>
       <c r="E25">
-        <v>0.000373</v>
+        <v>0.00663</v>
       </c>
       <c r="F25">
-        <v>0.000314</v>
+        <v>0.004135</v>
       </c>
       <c r="G25">
-        <v>0.000268</v>
+        <v>0.003692</v>
       </c>
       <c r="H25">
-        <v>0.000355</v>
+        <v>0.00238</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>0.000615</v>
+        <v>0.009950000000000001</v>
       </c>
       <c r="B26">
-        <v>0.000137</v>
+        <v>0.001894</v>
       </c>
       <c r="C26">
-        <v>3E-05</v>
+        <v>0.000491</v>
       </c>
       <c r="D26">
-        <v>8.7E-05</v>
+        <v>0.00223</v>
       </c>
       <c r="E26">
-        <v>0.000171</v>
+        <v>0.002605</v>
       </c>
       <c r="F26">
-        <v>0.000157</v>
+        <v>0.0018</v>
       </c>
       <c r="G26">
-        <v>0.00012</v>
+        <v>0.001668</v>
       </c>
       <c r="H26">
-        <v>0.000152</v>
+        <v>0.00117</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>0.000329</v>
+        <v>0.005314</v>
       </c>
       <c r="B27">
-        <v>6.4E-05</v>
+        <v>0.000791</v>
       </c>
       <c r="C27">
-        <v>8E-06</v>
+        <v>0.000142</v>
       </c>
       <c r="D27">
-        <v>5.7E-05</v>
+        <v>0.000857</v>
       </c>
       <c r="E27">
-        <v>7.7E-05</v>
+        <v>0.001009</v>
       </c>
       <c r="F27">
-        <v>6.9E-05</v>
+        <v>0.0007560000000000001</v>
       </c>
       <c r="G27">
-        <v>5.4E-05</v>
+        <v>0.000758</v>
       </c>
       <c r="H27">
-        <v>6.4E-05</v>
+        <v>0.000576</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>0.006257</v>
+        <v>0.024311</v>
       </c>
       <c r="B28">
-        <v>0.004948</v>
+        <v>0.08387600000000001</v>
       </c>
       <c r="C28">
-        <v>0.003855</v>
+        <v>0.077421</v>
       </c>
       <c r="D28">
-        <v>0.002334</v>
+        <v>0.183819</v>
       </c>
       <c r="E28">
-        <v>0.012121</v>
+        <v>0.173397</v>
       </c>
       <c r="F28">
-        <v>0.002176</v>
+        <v>0.021901</v>
       </c>
       <c r="G28">
-        <v>0.002217</v>
+        <v>0.020403</v>
       </c>
       <c r="H28">
-        <v>0.005892</v>
+        <v>0.019861</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>0.003363</v>
+        <v>0.013068</v>
       </c>
       <c r="B29">
-        <v>0.001212</v>
+        <v>0.017302</v>
       </c>
       <c r="C29">
-        <v>0.000795</v>
+        <v>0.01398</v>
       </c>
       <c r="D29">
-        <v>0.00069</v>
+        <v>0.032502</v>
       </c>
       <c r="E29">
-        <v>0.0027</v>
+        <v>0.0362</v>
       </c>
       <c r="F29">
-        <v>0.0007739999999999999</v>
+        <v>0.006809</v>
       </c>
       <c r="G29">
-        <v>0.000536</v>
+        <v>0.005933</v>
       </c>
       <c r="H29">
-        <v>0.001363</v>
+        <v>0.005068</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>0.001676</v>
+        <v>0.006005</v>
       </c>
       <c r="B30">
-        <v>0.000293</v>
+        <v>0.003263</v>
       </c>
       <c r="C30">
-        <v>0.000137</v>
+        <v>0.002083</v>
       </c>
       <c r="D30">
-        <v>0.000244</v>
+        <v>0.005639</v>
       </c>
       <c r="E30">
-        <v>0.000535</v>
+        <v>0.005967</v>
       </c>
       <c r="F30">
-        <v>0.00024</v>
+        <v>0.001863</v>
       </c>
       <c r="G30">
-        <v>0.000124</v>
+        <v>0.001362</v>
       </c>
       <c r="H30">
-        <v>0.000322</v>
+        <v>0.001482</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>0.000884</v>
+        <v>0.003434</v>
       </c>
       <c r="B31">
-        <v>8.000000000000001E-05</v>
+        <v>0.000669</v>
       </c>
       <c r="C31">
-        <v>2.3E-05</v>
+        <v>0.000218</v>
       </c>
       <c r="D31">
-        <v>9.2E-05</v>
+        <v>0.000908</v>
       </c>
       <c r="E31">
-        <v>9.899999999999999E-05</v>
+        <v>0.000935</v>
       </c>
       <c r="F31">
-        <v>7.7E-05</v>
+        <v>0.000575</v>
       </c>
       <c r="G31">
-        <v>3.6E-05</v>
+        <v>0.000375</v>
       </c>
       <c r="H31">
-        <v>9.500000000000001E-05</v>
+        <v>0.000552</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>0.005729</v>
+        <v>0.02868</v>
       </c>
       <c r="B32">
-        <v>0.004173</v>
+        <v>0.065481</v>
       </c>
       <c r="C32">
-        <v>0.002717</v>
+        <v>0.055029</v>
       </c>
       <c r="D32">
-        <v>0.001677</v>
+        <v>0.121658</v>
       </c>
       <c r="E32">
-        <v>0.008786</v>
+        <v>0.142983</v>
       </c>
       <c r="F32">
-        <v>0.002088</v>
+        <v>0.021749</v>
       </c>
       <c r="G32">
-        <v>0.002566</v>
+        <v>0.023748</v>
       </c>
       <c r="H32">
-        <v>0.005747</v>
+        <v>0.017268</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>0.002923</v>
+        <v>0.019317</v>
       </c>
       <c r="B33">
-        <v>0.001062</v>
+        <v>0.015438</v>
       </c>
       <c r="C33">
-        <v>0.000536</v>
+        <v>0.010502</v>
       </c>
       <c r="D33">
-        <v>0.000429</v>
+        <v>0.023183</v>
       </c>
       <c r="E33">
-        <v>0.001923</v>
+        <v>0.032191</v>
       </c>
       <c r="F33">
-        <v>0.000834</v>
+        <v>0.008505</v>
       </c>
       <c r="G33">
-        <v>0.000711</v>
+        <v>0.008713</v>
       </c>
       <c r="H33">
-        <v>0.001412</v>
+        <v>0.004598</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>0.002292</v>
+        <v>0.010519</v>
       </c>
       <c r="B34">
-        <v>0.00045</v>
+        <v>0.004843</v>
       </c>
       <c r="C34">
-        <v>0.000179</v>
+        <v>0.00265</v>
       </c>
       <c r="D34">
-        <v>0.000307</v>
+        <v>0.00685</v>
       </c>
       <c r="E34">
-        <v>0.000745</v>
+        <v>0.009082</v>
       </c>
       <c r="F34">
-        <v>0.000368</v>
+        <v>0.002937</v>
       </c>
       <c r="G34">
-        <v>0.000269</v>
+        <v>0.002885</v>
       </c>
       <c r="H34">
-        <v>0.000563</v>
+        <v>0.002464</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>0.000974</v>
+        <v>0.005846</v>
       </c>
       <c r="B35">
-        <v>0.000106</v>
+        <v>0.000964</v>
       </c>
       <c r="C35">
-        <v>2.8E-05</v>
+        <v>0.000306</v>
       </c>
       <c r="D35">
-        <v>9.000000000000001E-05</v>
+        <v>0.001137</v>
       </c>
       <c r="E35">
-        <v>0.000142</v>
+        <v>0.001478</v>
       </c>
       <c r="F35">
-        <v>0.000108</v>
+        <v>0.000831</v>
       </c>
       <c r="G35">
-        <v>6.1E-05</v>
+        <v>0.000722</v>
       </c>
       <c r="H35">
-        <v>0.000128</v>
+        <v>0.000652</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>0.000638</v>
+        <v>0.003195</v>
       </c>
       <c r="B36">
-        <v>3.7E-05</v>
+        <v>0.000287</v>
       </c>
       <c r="C36">
-        <v>1E-05</v>
+        <v>4.2E-05</v>
       </c>
       <c r="D36">
-        <v>5E-05</v>
+        <v>0.00028</v>
       </c>
       <c r="E36">
-        <v>3.7E-05</v>
+        <v>0.00032</v>
       </c>
       <c r="F36">
-        <v>3.6E-05</v>
+        <v>0.000297</v>
       </c>
       <c r="G36">
-        <v>2E-05</v>
+        <v>0.000211</v>
       </c>
       <c r="H36">
-        <v>4.4E-05</v>
+        <v>0.000327</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>0.002806</v>
+        <v>0.022656</v>
       </c>
       <c r="B37">
-        <v>0.001448</v>
+        <v>0.018846</v>
       </c>
       <c r="C37">
-        <v>0.00062</v>
+        <v>0.010096</v>
       </c>
       <c r="D37">
-        <v>0.000549</v>
+        <v>0.024257</v>
       </c>
       <c r="E37">
-        <v>0.002132</v>
+        <v>0.036014</v>
       </c>
       <c r="F37">
-        <v>0.001073</v>
+        <v>0.012054</v>
       </c>
       <c r="G37">
-        <v>0.001336</v>
+        <v>0.013678</v>
       </c>
       <c r="H37">
-        <v>0.002148</v>
+        <v>0.008225</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>0.001712</v>
+        <v>0.013821</v>
       </c>
       <c r="B38">
-        <v>0.000451</v>
+        <v>0.005604</v>
       </c>
       <c r="C38">
-        <v>0.000164</v>
+        <v>0.0026</v>
       </c>
       <c r="D38">
-        <v>0.000211</v>
+        <v>0.007016</v>
       </c>
       <c r="E38">
-        <v>0.0006669999999999999</v>
+        <v>0.009946999999999999</v>
       </c>
       <c r="F38">
-        <v>0.000434</v>
+        <v>0.004251</v>
       </c>
       <c r="G38">
-        <v>0.00035</v>
+        <v>0.004241</v>
       </c>
       <c r="H38">
-        <v>0.000594</v>
+        <v>0.002563</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>0.000943</v>
+        <v>0.00761</v>
       </c>
       <c r="B39">
-        <v>0.000143</v>
+        <v>0.001499</v>
       </c>
       <c r="C39">
-        <v>3.9E-05</v>
+        <v>0.00049</v>
       </c>
       <c r="D39">
-        <v>9.399999999999999E-05</v>
+        <v>0.001722</v>
       </c>
       <c r="E39">
-        <v>0.000193</v>
+        <v>0.002327</v>
       </c>
       <c r="F39">
-        <v>0.000154</v>
+        <v>0.001316</v>
       </c>
       <c r="G39">
-        <v>9.899999999999999E-05</v>
+        <v>0.001233</v>
       </c>
       <c r="H39">
-        <v>0.000173</v>
+        <v>0.000897</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>0.000411</v>
+        <v>0.003316</v>
       </c>
       <c r="B40">
-        <v>4.7E-05</v>
+        <v>0.000423</v>
       </c>
       <c r="C40">
-        <v>9E-06</v>
+        <v>6.600000000000001E-05</v>
       </c>
       <c r="D40">
-        <v>5E-05</v>
+        <v>0.00041</v>
       </c>
       <c r="E40">
-        <v>5.5E-05</v>
+        <v>0.00055</v>
       </c>
       <c r="F40">
-        <v>4.7E-05</v>
+        <v>0.000409</v>
       </c>
       <c r="G40">
-        <v>3E-05</v>
+        <v>0.00037</v>
       </c>
       <c r="H40">
-        <v>5.4E-05</v>
+        <v>0.000373</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>0.000219</v>
+        <v>0.002188</v>
       </c>
       <c r="B41">
-        <v>2.7E-05</v>
+        <v>0.000248</v>
       </c>
       <c r="C41">
-        <v>7E-06</v>
+        <v>3.1E-05</v>
       </c>
       <c r="D41">
-        <v>3.9E-05</v>
+        <v>0.000202</v>
       </c>
       <c r="E41">
-        <v>2.9E-05</v>
+        <v>0.000297</v>
       </c>
       <c r="F41">
-        <v>2.2E-05</v>
+        <v>0.000244</v>
       </c>
       <c r="G41">
-        <v>1.7E-05</v>
+        <v>0.000241</v>
       </c>
       <c r="H41">
-        <v>2.7E-05</v>
+        <v>0.000257</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>0.001588</v>
+        <v>0.015863</v>
       </c>
       <c r="B42">
-        <v>0.000454</v>
+        <v>0.006283</v>
       </c>
       <c r="C42">
-        <v>0.000164</v>
+        <v>0.002897</v>
       </c>
       <c r="D42">
-        <v>0.000195</v>
+        <v>0.007979</v>
       </c>
       <c r="E42">
-        <v>0.0006579999999999999</v>
+        <v>0.010991</v>
       </c>
       <c r="F42">
-        <v>0.000449</v>
+        <v>0.004973</v>
       </c>
       <c r="G42">
-        <v>0.000372</v>
+        <v>0.004795</v>
       </c>
       <c r="H42">
-        <v>0.000594</v>
+        <v>0.002678</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>0.001287</v>
+        <v>0.011538</v>
       </c>
       <c r="B43">
-        <v>0.000177</v>
+        <v>0.001975</v>
       </c>
       <c r="C43">
-        <v>4.9E-05</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="D43">
-        <v>0.000106</v>
+        <v>0.00227</v>
       </c>
       <c r="E43">
-        <v>0.000236</v>
+        <v>0.003041</v>
       </c>
       <c r="F43">
-        <v>0.000193</v>
+        <v>0.001749</v>
       </c>
       <c r="G43">
-        <v>0.000134</v>
+        <v>0.00166</v>
       </c>
       <c r="H43">
-        <v>0.000216</v>
+        <v>0.001153</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>0.000779</v>
+        <v>0.006986</v>
       </c>
       <c r="B44">
-        <v>6.7E-05</v>
+        <v>0.0006489999999999999</v>
       </c>
       <c r="C44">
-        <v>1.2E-05</v>
+        <v>0.000116</v>
       </c>
       <c r="D44">
-        <v>5.8E-05</v>
+        <v>0.000668</v>
       </c>
       <c r="E44">
-        <v>8.000000000000001E-05</v>
+        <v>0.000857</v>
       </c>
       <c r="F44">
-        <v>7.2E-05</v>
+        <v>0.000627</v>
       </c>
       <c r="G44">
-        <v>4.8E-05</v>
+        <v>0.00058</v>
       </c>
       <c r="H44">
-        <v>7.6E-05</v>
+        <v>0.000512</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>0.000377</v>
+        <v>0.003379</v>
       </c>
       <c r="B45">
-        <v>3.2E-05</v>
+        <v>0.000295</v>
       </c>
       <c r="C45">
-        <v>6E-06</v>
+        <v>2.6E-05</v>
       </c>
       <c r="D45">
-        <v>4.1E-05</v>
+        <v>0.000261</v>
       </c>
       <c r="E45">
-        <v>3.4E-05</v>
+        <v>0.000337</v>
       </c>
       <c r="F45">
-        <v>3.1E-05</v>
+        <v>0.0003</v>
       </c>
       <c r="G45">
-        <v>2.2E-05</v>
+        <v>0.000274</v>
       </c>
       <c r="H45">
-        <v>3.4E-05</v>
+        <v>0.000303</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>0.002179</v>
+        <v>0.021766</v>
       </c>
       <c r="B46">
-        <v>0.000612</v>
+        <v>0.007860000000000001</v>
       </c>
       <c r="C46">
-        <v>0.000212</v>
+        <v>0.00307</v>
       </c>
       <c r="D46">
-        <v>0.000261</v>
+        <v>0.009351999999999999</v>
       </c>
       <c r="E46">
-        <v>0.000818</v>
+        <v>0.012999</v>
       </c>
       <c r="F46">
-        <v>0.000568</v>
+        <v>0.006382</v>
       </c>
       <c r="G46">
-        <v>0.000565</v>
+        <v>0.006511</v>
       </c>
       <c r="H46">
-        <v>0.000846</v>
+        <v>0.004054</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>0.001195</v>
+        <v>0.013369</v>
       </c>
       <c r="B47">
-        <v>0.000224</v>
+        <v>0.002809</v>
       </c>
       <c r="C47">
-        <v>6.4E-05</v>
+        <v>0.000897</v>
       </c>
       <c r="D47">
-        <v>0.000119</v>
+        <v>0.003279</v>
       </c>
       <c r="E47">
-        <v>0.000293</v>
+        <v>0.004247</v>
       </c>
       <c r="F47">
-        <v>0.000245</v>
+        <v>0.002542</v>
       </c>
       <c r="G47">
-        <v>0.000188</v>
+        <v>0.002393</v>
       </c>
       <c r="H47">
-        <v>0.000276</v>
+        <v>0.001587</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>0.000695</v>
+        <v>0.007773</v>
       </c>
       <c r="B48">
-        <v>9.1E-05</v>
+        <v>0.001013</v>
       </c>
       <c r="C48">
-        <v>1.8E-05</v>
+        <v>0.000217</v>
       </c>
       <c r="D48">
-        <v>6.7E-05</v>
+        <v>0.001097</v>
       </c>
       <c r="E48">
-        <v>0.000112</v>
+        <v>0.00137</v>
       </c>
       <c r="F48">
-        <v>0.000102</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="G48">
-        <v>7.2E-05</v>
+        <v>0.000917</v>
       </c>
       <c r="H48">
-        <v>0.000103</v>
+        <v>0.000712</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>0.00035</v>
+        <v>0.003918</v>
       </c>
       <c r="B49">
-        <v>4.2E-05</v>
+        <v>0.000423</v>
       </c>
       <c r="C49">
-        <v>5E-06</v>
+        <v>4.6E-05</v>
       </c>
       <c r="D49">
-        <v>4.5E-05</v>
+        <v>0.000406</v>
       </c>
       <c r="E49">
-        <v>4.7E-05</v>
+        <v>0.00051</v>
       </c>
       <c r="F49">
-        <v>4.2E-05</v>
+        <v>0.000418</v>
       </c>
       <c r="G49">
-        <v>3.1E-05</v>
+        <v>0.000405</v>
       </c>
       <c r="H49">
-        <v>4.3E-05</v>
+        <v>0.000376</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>0.001465</v>
+        <v>0.023686</v>
       </c>
       <c r="B50">
-        <v>0.000624</v>
+        <v>0.010492</v>
       </c>
       <c r="C50">
-        <v>0.000207</v>
+        <v>0.004129</v>
       </c>
       <c r="D50">
-        <v>0.000258</v>
+        <v>0.013691</v>
       </c>
       <c r="E50">
-        <v>0.0008050000000000001</v>
+        <v>0.016536</v>
       </c>
       <c r="F50">
-        <v>0.000587</v>
+        <v>0.009112</v>
       </c>
       <c r="G50">
-        <v>0.000627</v>
+        <v>0.008244</v>
       </c>
       <c r="H50">
-        <v>0.00084</v>
+        <v>0.004878</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>0.001021</v>
+        <v>0.016512</v>
       </c>
       <c r="B51">
-        <v>0.000291</v>
+        <v>0.004479</v>
       </c>
       <c r="C51">
-        <v>8.2E-05</v>
+        <v>0.001479</v>
       </c>
       <c r="D51">
-        <v>0.000143</v>
+        <v>0.005561</v>
       </c>
       <c r="E51">
-        <v>0.000373</v>
+        <v>0.00663</v>
       </c>
       <c r="F51">
-        <v>0.000314</v>
+        <v>0.004135</v>
       </c>
       <c r="G51">
-        <v>0.000268</v>
+        <v>0.003692</v>
       </c>
       <c r="H51">
-        <v>0.000355</v>
+        <v>0.00238</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>0.000588</v>
+        <v>0.009508000000000001</v>
       </c>
       <c r="B52">
-        <v>0.000137</v>
+        <v>0.001894</v>
       </c>
       <c r="C52">
-        <v>3E-05</v>
+        <v>0.000491</v>
       </c>
       <c r="D52">
-        <v>8.7E-05</v>
+        <v>0.00223</v>
       </c>
       <c r="E52">
-        <v>0.000171</v>
+        <v>0.002605</v>
       </c>
       <c r="F52">
-        <v>0.000157</v>
+        <v>0.0018</v>
       </c>
       <c r="G52">
-        <v>0.00012</v>
+        <v>0.001668</v>
       </c>
       <c r="H52">
-        <v>0.000152</v>
+        <v>0.00117</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>0.000313</v>
+        <v>0.005067</v>
       </c>
       <c r="B53">
-        <v>6.4E-05</v>
+        <v>0.000791</v>
       </c>
       <c r="C53">
-        <v>8E-06</v>
+        <v>0.000142</v>
       </c>
       <c r="D53">
-        <v>5.7E-05</v>
+        <v>0.000857</v>
       </c>
       <c r="E53">
-        <v>7.7E-05</v>
+        <v>0.001009</v>
       </c>
       <c r="F53">
-        <v>6.9E-05</v>
+        <v>0.0007560000000000001</v>
       </c>
       <c r="G53">
-        <v>5.4E-05</v>
+        <v>0.000758</v>
       </c>
       <c r="H53">
-        <v>6.4E-05</v>
+        <v>0.000576</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>0.006915</v>
+        <v>0.026871</v>
       </c>
       <c r="B54">
-        <v>0.006306</v>
+        <v>0.110449</v>
       </c>
       <c r="C54">
-        <v>0.005031</v>
+        <v>0.104394</v>
       </c>
       <c r="D54">
-        <v>0.002861</v>
+        <v>0.250462</v>
       </c>
       <c r="E54">
-        <v>0.01565</v>
+        <v>0.225404</v>
       </c>
       <c r="F54">
-        <v>0.002607</v>
+        <v>0.026784</v>
       </c>
       <c r="G54">
-        <v>0.002832</v>
+        <v>0.025131</v>
       </c>
       <c r="H54">
-        <v>0.00758</v>
+        <v>0.024465</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>0.003196</v>
+        <v>0.01242</v>
       </c>
       <c r="B55">
-        <v>0.001575</v>
+        <v>0.02357</v>
       </c>
       <c r="C55">
-        <v>0.001088</v>
+        <v>0.019719</v>
       </c>
       <c r="D55">
-        <v>0.000838</v>
+        <v>0.045485</v>
       </c>
       <c r="E55">
-        <v>0.003616</v>
+        <v>0.049808</v>
       </c>
       <c r="F55">
-        <v>0.000953</v>
+        <v>0.008626</v>
       </c>
       <c r="G55">
-        <v>0.000691</v>
+        <v>0.007601</v>
       </c>
       <c r="H55">
-        <v>0.001778</v>
+        <v>0.006333</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>0.001737</v>
+        <v>0.006224</v>
       </c>
       <c r="B56">
-        <v>0.00038</v>
+        <v>0.004465</v>
       </c>
       <c r="C56">
-        <v>0.000196</v>
+        <v>0.003057</v>
       </c>
       <c r="D56">
-        <v>0.000293</v>
+        <v>0.007896</v>
       </c>
       <c r="E56">
-        <v>0.000737</v>
+        <v>0.008489999999999999</v>
       </c>
       <c r="F56">
-        <v>0.0003</v>
+        <v>0.00236</v>
       </c>
       <c r="G56">
-        <v>0.000158</v>
+        <v>0.001771</v>
       </c>
       <c r="H56">
-        <v>0.000413</v>
+        <v>0.001806</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>0.000754</v>
+        <v>0.00293</v>
       </c>
       <c r="B57">
-        <v>9.8E-05</v>
+        <v>0.000857</v>
       </c>
       <c r="C57">
-        <v>3E-05</v>
+        <v>0.000325</v>
       </c>
       <c r="D57">
-        <v>0.000106</v>
+        <v>0.001209</v>
       </c>
       <c r="E57">
-        <v>0.000131</v>
+        <v>0.001278</v>
       </c>
       <c r="F57">
-        <v>9.3E-05</v>
+        <v>0.000695</v>
       </c>
       <c r="G57">
-        <v>4.4E-05</v>
+        <v>0.00047</v>
       </c>
       <c r="H57">
-        <v>0.000116</v>
+        <v>0.000633</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>0.006604</v>
+        <v>0.033065</v>
       </c>
       <c r="B58">
-        <v>0.005162</v>
+        <v>0.083442</v>
       </c>
       <c r="C58">
-        <v>0.003444</v>
+        <v>0.071814</v>
       </c>
       <c r="D58">
-        <v>0.002</v>
+        <v>0.160541</v>
       </c>
       <c r="E58">
-        <v>0.010987</v>
+        <v>0.181395</v>
       </c>
       <c r="F58">
-        <v>0.00243</v>
+        <v>0.025925</v>
       </c>
       <c r="G58">
-        <v>0.003207</v>
+        <v>0.028675</v>
       </c>
       <c r="H58">
-        <v>0.007186</v>
+        <v>0.020674</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>0.003213</v>
+        <v>0.021233</v>
       </c>
       <c r="B59">
-        <v>0.001311</v>
+        <v>0.019911</v>
       </c>
       <c r="C59">
-        <v>0.0006890000000000001</v>
+        <v>0.01407</v>
       </c>
       <c r="D59">
-        <v>0.000503</v>
+        <v>0.03075</v>
       </c>
       <c r="E59">
-        <v>0.002417</v>
+        <v>0.042086</v>
       </c>
       <c r="F59">
-        <v>0.0009810000000000001</v>
+        <v>0.010403</v>
       </c>
       <c r="G59">
-        <v>0.000889</v>
+        <v>0.010806</v>
       </c>
       <c r="H59">
-        <v>0.001768</v>
+        <v>0.005512</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>0.002574</v>
+        <v>0.011816</v>
       </c>
       <c r="B60">
-        <v>0.000561</v>
+        <v>0.006295</v>
       </c>
       <c r="C60">
-        <v>0.00024</v>
+        <v>0.00369</v>
       </c>
       <c r="D60">
-        <v>0.000359</v>
+        <v>0.0091</v>
       </c>
       <c r="E60">
-        <v>0.000963</v>
+        <v>0.012189</v>
       </c>
       <c r="F60">
-        <v>0.000443</v>
+        <v>0.003614</v>
       </c>
       <c r="G60">
-        <v>0.000335</v>
+        <v>0.003596</v>
       </c>
       <c r="H60">
-        <v>0.000706</v>
+        <v>0.002977</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>0.001085</v>
+        <v>0.006512</v>
       </c>
       <c r="B61">
-        <v>0.000128</v>
+        <v>0.001214</v>
       </c>
       <c r="C61">
-        <v>3.7E-05</v>
+        <v>0.000439</v>
       </c>
       <c r="D61">
-        <v>0.000101</v>
+        <v>0.001472</v>
       </c>
       <c r="E61">
-        <v>0.000179</v>
+        <v>0.001946</v>
       </c>
       <c r="F61">
-        <v>0.000131</v>
+        <v>0.00101</v>
       </c>
       <c r="G61">
-        <v>7.4E-05</v>
+        <v>0.000892</v>
       </c>
       <c r="H61">
-        <v>0.000155</v>
+        <v>0.00075</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>0.000563</v>
+        <v>0.002817</v>
       </c>
       <c r="B62">
-        <v>4.4E-05</v>
+        <v>0.000338</v>
       </c>
       <c r="C62">
-        <v>1.1E-05</v>
+        <v>4.9E-05</v>
       </c>
       <c r="D62">
-        <v>5.5E-05</v>
+        <v>0.000345</v>
       </c>
       <c r="E62">
-        <v>4.5E-05</v>
+        <v>0.000398</v>
       </c>
       <c r="F62">
-        <v>4.3E-05</v>
+        <v>0.00034</v>
       </c>
       <c r="G62">
-        <v>2.3E-05</v>
+        <v>0.000248</v>
       </c>
       <c r="H62">
-        <v>5.2E-05</v>
+        <v>0.00036</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>0.00299</v>
+        <v>0.024135</v>
       </c>
       <c r="B63">
-        <v>0.001709</v>
+        <v>0.022779</v>
       </c>
       <c r="C63">
-        <v>0.0007560000000000001</v>
+        <v>0.012723</v>
       </c>
       <c r="D63">
-        <v>0.000626</v>
+        <v>0.030007</v>
       </c>
       <c r="E63">
-        <v>0.002539</v>
+        <v>0.044228</v>
       </c>
       <c r="F63">
-        <v>0.001212</v>
+        <v>0.014032</v>
       </c>
       <c r="G63">
-        <v>0.001603</v>
+        <v>0.016123</v>
       </c>
       <c r="H63">
-        <v>0.002567</v>
+        <v>0.009505</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>0.001917</v>
+        <v>0.015479</v>
       </c>
       <c r="B64">
-        <v>0.000541</v>
+        <v>0.006966</v>
       </c>
       <c r="C64">
-        <v>0.000206</v>
+        <v>0.003423</v>
       </c>
       <c r="D64">
-        <v>0.00024</v>
+        <v>0.008898</v>
       </c>
       <c r="E64">
-        <v>0.000813</v>
+        <v>0.012661</v>
       </c>
       <c r="F64">
-        <v>0.000505</v>
+        <v>0.005119</v>
       </c>
       <c r="G64">
-        <v>0.000424</v>
+        <v>0.005146</v>
       </c>
       <c r="H64">
-        <v>0.000722</v>
+        <v>0.003006</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>0.000974</v>
+        <v>0.007865</v>
       </c>
       <c r="B65">
-        <v>0.00017</v>
+        <v>0.00185</v>
       </c>
       <c r="C65">
-        <v>5E-05</v>
+        <v>0.000665</v>
       </c>
       <c r="D65">
-        <v>0.000105</v>
+        <v>0.00217</v>
       </c>
       <c r="E65">
-        <v>0.000236</v>
+        <v>0.002965</v>
       </c>
       <c r="F65">
-        <v>0.000183</v>
+        <v>0.001587</v>
       </c>
       <c r="G65">
-        <v>0.000119</v>
+        <v>0.001495</v>
       </c>
       <c r="H65">
-        <v>0.000207</v>
+        <v>0.001033</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>0.000448</v>
+        <v>0.003617</v>
       </c>
       <c r="B66">
-        <v>5.4E-05</v>
+        <v>0.000497</v>
       </c>
       <c r="C66">
-        <v>1.1E-05</v>
+        <v>9.2E-05</v>
       </c>
       <c r="D66">
-        <v>5.4E-05</v>
+        <v>0.000497</v>
       </c>
       <c r="E66">
-        <v>6.499999999999999E-05</v>
+        <v>0.000671</v>
       </c>
       <c r="F66">
-        <v>5.5E-05</v>
+        <v>0.000474</v>
       </c>
       <c r="G66">
-        <v>3.4E-05</v>
+        <v>0.000432</v>
       </c>
       <c r="H66">
-        <v>6.3E-05</v>
+        <v>0.00041</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>0.000244</v>
+        <v>0.00244</v>
       </c>
       <c r="B67">
-        <v>2.9E-05</v>
+        <v>0.000274</v>
       </c>
       <c r="C67">
-        <v>7E-06</v>
+        <v>3.4E-05</v>
       </c>
       <c r="D67">
-        <v>4E-05</v>
+        <v>0.00023</v>
       </c>
       <c r="E67">
-        <v>3.2E-05</v>
+        <v>0.000335</v>
       </c>
       <c r="F67">
-        <v>2.5E-05</v>
+        <v>0.000267</v>
       </c>
       <c r="G67">
-        <v>1.9E-05</v>
+        <v>0.000264</v>
       </c>
       <c r="H67">
-        <v>3E-05</v>
+        <v>0.000272</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>0.001829</v>
+        <v>0.018273</v>
       </c>
       <c r="B68">
-        <v>0.000538</v>
+        <v>0.007723</v>
       </c>
       <c r="C68">
-        <v>0.000202</v>
+        <v>0.003744</v>
       </c>
       <c r="D68">
-        <v>0.000221</v>
+        <v>0.010001</v>
       </c>
       <c r="E68">
-        <v>0.000791</v>
+        <v>0.013781</v>
       </c>
       <c r="F68">
-        <v>0.000517</v>
+        <v>0.005949</v>
       </c>
       <c r="G68">
-        <v>0.000447</v>
+        <v>0.005769</v>
       </c>
       <c r="H68">
-        <v>0.000715</v>
+        <v>0.003116</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>0.001374</v>
+        <v>0.012323</v>
       </c>
       <c r="B69">
-        <v>0.000209</v>
+        <v>0.002409</v>
       </c>
       <c r="C69">
-        <v>6.2E-05</v>
+        <v>0.000847</v>
       </c>
       <c r="D69">
-        <v>0.000117</v>
+        <v>0.002819</v>
       </c>
       <c r="E69">
-        <v>0.000284</v>
+        <v>0.003814</v>
       </c>
       <c r="F69">
-        <v>0.000225</v>
+        <v>0.002091</v>
       </c>
       <c r="G69">
-        <v>0.000159</v>
+        <v>0.001992</v>
       </c>
       <c r="H69">
-        <v>0.000258</v>
+        <v>0.001327</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>0.00087</v>
+        <v>0.007802</v>
       </c>
       <c r="B70">
-        <v>7.7E-05</v>
+        <v>0.0007649999999999999</v>
       </c>
       <c r="C70">
-        <v>1.5E-05</v>
+        <v>0.000158</v>
       </c>
       <c r="D70">
-        <v>6.3E-05</v>
+        <v>0.0008050000000000001</v>
       </c>
       <c r="E70">
-        <v>9.399999999999999E-05</v>
+        <v>0.001042</v>
       </c>
       <c r="F70">
-        <v>8.3E-05</v>
+        <v>0.000729</v>
       </c>
       <c r="G70">
-        <v>5.5E-05</v>
+        <v>0.000678</v>
       </c>
       <c r="H70">
-        <v>8.8E-05</v>
+        <v>0.000569</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>0.000482</v>
+        <v>0.004322</v>
       </c>
       <c r="B71">
-        <v>3.6E-05</v>
+        <v>0.000329</v>
       </c>
       <c r="C71">
-        <v>6E-06</v>
+        <v>3E-05</v>
       </c>
       <c r="D71">
-        <v>4.3E-05</v>
+        <v>0.000299</v>
       </c>
       <c r="E71">
-        <v>3.9E-05</v>
+        <v>0.000385</v>
       </c>
       <c r="F71">
-        <v>3.5E-05</v>
+        <v>0.000332</v>
       </c>
       <c r="G71">
-        <v>2.5E-05</v>
+        <v>0.000305</v>
       </c>
       <c r="H71">
-        <v>3.8E-05</v>
+        <v>0.000325</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>0.002401</v>
+        <v>0.023986</v>
       </c>
       <c r="B72">
-        <v>0.000713</v>
+        <v>0.009398999999999999</v>
       </c>
       <c r="C72">
-        <v>0.000256</v>
+        <v>0.003868</v>
       </c>
       <c r="D72">
-        <v>0.000293</v>
+        <v>0.011367</v>
       </c>
       <c r="E72">
-        <v>0.000962</v>
+        <v>0.015853</v>
       </c>
       <c r="F72">
-        <v>0.000642</v>
+        <v>0.007457</v>
       </c>
       <c r="G72">
-        <v>0.000669</v>
+        <v>0.007663</v>
       </c>
       <c r="H72">
-        <v>0.001001</v>
+        <v>0.004657</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>0.001371</v>
+        <v>0.01534</v>
       </c>
       <c r="B73">
-        <v>0.000261</v>
+        <v>0.003362</v>
       </c>
       <c r="C73">
-        <v>7.7E-05</v>
+        <v>0.001145</v>
       </c>
       <c r="D73">
-        <v>0.000132</v>
+        <v>0.003981</v>
       </c>
       <c r="E73">
-        <v>0.000345</v>
+        <v>0.005194</v>
       </c>
       <c r="F73">
-        <v>0.000281</v>
+        <v>0.002998</v>
       </c>
       <c r="G73">
-        <v>0.00022</v>
+        <v>0.002822</v>
       </c>
       <c r="H73">
-        <v>0.000325</v>
+        <v>0.001816</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>0.000838</v>
+        <v>0.009372</v>
       </c>
       <c r="B74">
-        <v>0.000105</v>
+        <v>0.001188</v>
       </c>
       <c r="C74">
-        <v>2.3E-05</v>
+        <v>0.000282</v>
       </c>
       <c r="D74">
-        <v>7.3E-05</v>
+        <v>0.001307</v>
       </c>
       <c r="E74">
-        <v>0.00013</v>
+        <v>0.001645</v>
       </c>
       <c r="F74">
-        <v>0.000118</v>
+        <v>0.001127</v>
       </c>
       <c r="G74">
-        <v>8.3E-05</v>
+        <v>0.001063</v>
       </c>
       <c r="H74">
-        <v>0.000119</v>
+        <v>0.000796</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>0.000439</v>
+        <v>0.004913</v>
       </c>
       <c r="B75">
-        <v>4.6E-05</v>
+        <v>0.000475</v>
       </c>
       <c r="C75">
-        <v>6E-06</v>
+        <v>5.9E-05</v>
       </c>
       <c r="D75">
-        <v>4.7E-05</v>
+        <v>0.000465</v>
       </c>
       <c r="E75">
-        <v>5.3E-05</v>
+        <v>0.000585</v>
       </c>
       <c r="F75">
-        <v>4.7E-05</v>
+        <v>0.000466</v>
       </c>
       <c r="G75">
-        <v>3.5E-05</v>
+        <v>0.000452</v>
       </c>
       <c r="H75">
-        <v>4.8E-05</v>
+        <v>0.000406</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>0.001639</v>
+        <v>0.026495</v>
       </c>
       <c r="B76">
-        <v>0.000711</v>
+        <v>0.012224</v>
       </c>
       <c r="C76">
-        <v>0.000243</v>
+        <v>0.004998</v>
       </c>
       <c r="D76">
-        <v>0.000287</v>
+        <v>0.016178</v>
       </c>
       <c r="E76">
-        <v>0.000919</v>
+        <v>0.01952</v>
       </c>
       <c r="F76">
-        <v>0.0006489999999999999</v>
+        <v>0.010443</v>
       </c>
       <c r="G76">
-        <v>0.000726</v>
+        <v>0.00949</v>
       </c>
       <c r="H76">
-        <v>0.000971</v>
+        <v>0.005488</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>0.001138</v>
+        <v>0.018404</v>
       </c>
       <c r="B77">
-        <v>0.000331</v>
+        <v>0.005235</v>
       </c>
       <c r="C77">
-        <v>9.7E-05</v>
+        <v>0.001808</v>
       </c>
       <c r="D77">
-        <v>0.000157</v>
+        <v>0.006578</v>
       </c>
       <c r="E77">
-        <v>0.000426</v>
+        <v>0.007861999999999999</v>
       </c>
       <c r="F77">
-        <v>0.000352</v>
+        <v>0.004788</v>
       </c>
       <c r="G77">
-        <v>0.000308</v>
+        <v>0.004258</v>
       </c>
       <c r="H77">
-        <v>0.000411</v>
+        <v>0.002688</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>0.000715</v>
+        <v>0.011565</v>
       </c>
       <c r="B78">
-        <v>0.000155</v>
+        <v>0.002192</v>
       </c>
       <c r="C78">
-        <v>3.6E-05</v>
+        <v>0.000602</v>
       </c>
       <c r="D78">
-        <v>9.3E-05</v>
+        <v>0.00261</v>
       </c>
       <c r="E78">
-        <v>0.000195</v>
+        <v>0.003064</v>
       </c>
       <c r="F78">
-        <v>0.000176</v>
+        <v>0.002074</v>
       </c>
       <c r="G78">
-        <v>0.000136</v>
+        <v>0.001904</v>
       </c>
       <c r="H78">
-        <v>0.000174</v>
+        <v>0.001309</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>0.000405</v>
+        <v>0.00655</v>
       </c>
       <c r="B79">
-        <v>7.1E-05</v>
+        <v>0.000892</v>
       </c>
       <c r="C79">
-        <v>1E-05</v>
+        <v>0.000174</v>
       </c>
       <c r="D79">
-        <v>5.9E-05</v>
+        <v>0.0009810000000000001</v>
       </c>
       <c r="E79">
-        <v>8.6E-05</v>
+        <v>0.001158</v>
       </c>
       <c r="F79">
-        <v>7.8E-05</v>
+        <v>0.000851</v>
       </c>
       <c r="G79">
-        <v>6E-05</v>
+        <v>0.000844</v>
       </c>
       <c r="H79">
-        <v>7.1E-05</v>
+        <v>0.000628</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>0.005957</v>
+        <v>0.023147</v>
       </c>
       <c r="B80">
-        <v>0.005128</v>
+        <v>0.093061</v>
       </c>
       <c r="C80">
-        <v>0.004156</v>
+        <v>0.087965</v>
       </c>
       <c r="D80">
-        <v>0.00212</v>
+        <v>0.207877</v>
       </c>
       <c r="E80">
-        <v>0.012902</v>
+        <v>0.193349</v>
       </c>
       <c r="F80">
-        <v>0.002357</v>
+        <v>0.024237</v>
       </c>
       <c r="G80">
-        <v>0.002234</v>
+        <v>0.022431</v>
       </c>
       <c r="H80">
-        <v>0.006027</v>
+        <v>0.01741</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>0.003378</v>
+        <v>0.012102</v>
       </c>
       <c r="B81">
-        <v>0.001322</v>
+        <v>0.019805</v>
       </c>
       <c r="C81">
-        <v>0.000952</v>
+        <v>0.01683</v>
       </c>
       <c r="D81">
-        <v>0.000712</v>
+        <v>0.039076</v>
       </c>
       <c r="E81">
-        <v>0.003133</v>
+        <v>0.041668</v>
       </c>
       <c r="F81">
-        <v>0.000839</v>
+        <v>0.00736</v>
       </c>
       <c r="G81">
-        <v>0.00052</v>
+        <v>0.006012</v>
       </c>
       <c r="H81">
-        <v>0.001406</v>
+        <v>0.004911</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>0.001702</v>
+        <v>0.006614</v>
       </c>
       <c r="B82">
-        <v>0.000289</v>
+        <v>0.003148</v>
       </c>
       <c r="C82">
-        <v>0.000134</v>
+        <v>0.001965</v>
       </c>
       <c r="D82">
-        <v>0.000221</v>
+        <v>0.005074</v>
       </c>
       <c r="E82">
-        <v>0.000526</v>
+        <v>0.005965</v>
       </c>
       <c r="F82">
-        <v>0.000249</v>
+        <v>0.001884</v>
       </c>
       <c r="G82">
-        <v>0.000126</v>
+        <v>0.00147</v>
       </c>
       <c r="H82">
-        <v>0.000326</v>
+        <v>0.001348</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>0.004729</v>
+        <v>0.031251</v>
       </c>
       <c r="B83">
-        <v>0.003387</v>
+        <v>0.061462</v>
       </c>
       <c r="C83">
-        <v>0.002042</v>
+        <v>0.049769</v>
       </c>
       <c r="D83">
-        <v>0.00106</v>
+        <v>0.109809</v>
       </c>
       <c r="E83">
-        <v>0.006591</v>
+        <v>0.133028</v>
       </c>
       <c r="F83">
-        <v>0.001944</v>
+        <v>0.02451</v>
       </c>
       <c r="G83">
-        <v>0.002463</v>
+        <v>0.027691</v>
       </c>
       <c r="H83">
-        <v>0.004879</v>
+        <v>0.012272</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>0.003843</v>
+        <v>0.017637</v>
       </c>
       <c r="B84">
-        <v>0.001559</v>
+        <v>0.021105</v>
       </c>
       <c r="C84">
-        <v>0.000871</v>
+        <v>0.015532</v>
       </c>
       <c r="D84">
-        <v>0.000762</v>
+        <v>0.034155</v>
       </c>
       <c r="E84">
-        <v>0.00305</v>
+        <v>0.045091</v>
       </c>
       <c r="F84">
-        <v>0.001006</v>
+        <v>0.009312000000000001</v>
       </c>
       <c r="G84">
-        <v>0.000933</v>
+        <v>0.009698</v>
       </c>
       <c r="H84">
-        <v>0.002045</v>
+        <v>0.00727</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>0.001782</v>
+        <v>0.010697</v>
       </c>
       <c r="B85">
-        <v>0.000331</v>
+        <v>0.003875</v>
       </c>
       <c r="C85">
-        <v>0.000137</v>
+        <v>0.002135</v>
       </c>
       <c r="D85">
-        <v>0.000185</v>
+        <v>0.005264</v>
       </c>
       <c r="E85">
-        <v>0.0005509999999999999</v>
+        <v>0.007368</v>
       </c>
       <c r="F85">
-        <v>0.000318</v>
+        <v>0.002672</v>
       </c>
       <c r="G85">
-        <v>0.000196</v>
+        <v>0.002511</v>
       </c>
       <c r="H85">
-        <v>0.000406</v>
+        <v>0.001561</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>0.001185</v>
+        <v>0.005932</v>
       </c>
       <c r="B86">
-        <v>9.7E-05</v>
+        <v>0.000851</v>
       </c>
       <c r="C86">
-        <v>2.6E-05</v>
+        <v>0.000266</v>
       </c>
       <c r="D86">
-        <v>9.1E-05</v>
+        <v>0.001032</v>
       </c>
       <c r="E86">
-        <v>0.000128</v>
+        <v>0.001281</v>
       </c>
       <c r="F86">
-        <v>9.8E-05</v>
+        <v>0.000731</v>
       </c>
       <c r="G86">
-        <v>5.3E-05</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H86">
-        <v>0.000117</v>
+        <v>0.000612</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>0.004203</v>
+        <v>0.03393</v>
       </c>
       <c r="B87">
-        <v>0.003591</v>
+        <v>0.0525</v>
       </c>
       <c r="C87">
-        <v>0.0018</v>
+        <v>0.034374</v>
       </c>
       <c r="D87">
-        <v>0.001156</v>
+        <v>0.07788</v>
       </c>
       <c r="E87">
-        <v>0.005472</v>
+        <v>0.107302</v>
       </c>
       <c r="F87">
-        <v>0.002013</v>
+        <v>0.026645</v>
       </c>
       <c r="G87">
-        <v>0.003665</v>
+        <v>0.032962</v>
       </c>
       <c r="H87">
-        <v>0.005648</v>
+        <v>0.017711</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>0.00261</v>
+        <v>0.021071</v>
       </c>
       <c r="B88">
-        <v>0.001246</v>
+        <v>0.018818</v>
       </c>
       <c r="C88">
-        <v>0.000565</v>
+        <v>0.011424</v>
       </c>
       <c r="D88">
-        <v>0.000446</v>
+        <v>0.026658</v>
       </c>
       <c r="E88">
-        <v>0.001992</v>
+        <v>0.037232</v>
       </c>
       <c r="F88">
-        <v>0.0009700000000000001</v>
+        <v>0.011661</v>
       </c>
       <c r="G88">
-        <v>0.001043</v>
+        <v>0.012302</v>
       </c>
       <c r="H88">
-        <v>0.001777</v>
+        <v>0.006235</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>0.001491</v>
+        <v>0.012037</v>
       </c>
       <c r="B89">
-        <v>0.000393</v>
+        <v>0.005144</v>
       </c>
       <c r="C89">
-        <v>0.00015</v>
+        <v>0.002565</v>
       </c>
       <c r="D89">
-        <v>0.000182</v>
+        <v>0.006634</v>
       </c>
       <c r="E89">
-        <v>0.000604</v>
+        <v>0.009364000000000001</v>
       </c>
       <c r="F89">
-        <v>0.000391</v>
+        <v>0.00388</v>
       </c>
       <c r="G89">
-        <v>0.000287</v>
+        <v>0.003752</v>
       </c>
       <c r="H89">
-        <v>0.000502</v>
+        <v>0.002089</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>0.000821</v>
+        <v>0.006625</v>
       </c>
       <c r="B90">
-        <v>0.000114</v>
+        <v>0.001193</v>
       </c>
       <c r="C90">
-        <v>3.3E-05</v>
+        <v>0.000408</v>
       </c>
       <c r="D90">
-        <v>8.000000000000001E-05</v>
+        <v>0.001356</v>
       </c>
       <c r="E90">
-        <v>0.000158</v>
+        <v>0.001894</v>
       </c>
       <c r="F90">
-        <v>0.000123</v>
+        <v>0.001043</v>
       </c>
       <c r="G90">
-        <v>7.4E-05</v>
+        <v>0.000977</v>
       </c>
       <c r="H90">
-        <v>0.000137</v>
+        <v>0.000696</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>0.000418</v>
+        <v>0.004173</v>
       </c>
       <c r="B91">
-        <v>4.9E-05</v>
+        <v>0.00049</v>
       </c>
       <c r="C91">
-        <v>9E-06</v>
+        <v>9.8E-05</v>
       </c>
       <c r="D91">
-        <v>4.9E-05</v>
+        <v>0.000474</v>
       </c>
       <c r="E91">
-        <v>6.1E-05</v>
+        <v>0.000676</v>
       </c>
       <c r="F91">
-        <v>4.9E-05</v>
+        <v>0.00046</v>
       </c>
       <c r="G91">
-        <v>3.3E-05</v>
+        <v>0.000456</v>
       </c>
       <c r="H91">
-        <v>5.5E-05</v>
+        <v>0.000382</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>0.002822</v>
+        <v>0.028196</v>
       </c>
       <c r="B92">
-        <v>0.001177</v>
+        <v>0.019747</v>
       </c>
       <c r="C92">
-        <v>0.000513</v>
+        <v>0.0116</v>
       </c>
       <c r="D92">
-        <v>0.0004</v>
+        <v>0.028277</v>
       </c>
       <c r="E92">
-        <v>0.001803</v>
+        <v>0.03791</v>
       </c>
       <c r="F92">
-        <v>0.000945</v>
+        <v>0.013088</v>
       </c>
       <c r="G92">
-        <v>0.001057</v>
+        <v>0.013273</v>
       </c>
       <c r="H92">
-        <v>0.00168</v>
+        <v>0.006187</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>0.001907</v>
+        <v>0.017105</v>
       </c>
       <c r="B93">
-        <v>0.000458</v>
+        <v>0.006227</v>
       </c>
       <c r="C93">
-        <v>0.000169</v>
+        <v>0.002936</v>
       </c>
       <c r="D93">
-        <v>0.000199</v>
+        <v>0.00793</v>
       </c>
       <c r="E93">
-        <v>0.000674</v>
+        <v>0.011028</v>
       </c>
       <c r="F93">
-        <v>0.00045</v>
+        <v>0.004842</v>
       </c>
       <c r="G93">
-        <v>0.000367</v>
+        <v>0.004703</v>
       </c>
       <c r="H93">
-        <v>0.0005999999999999999</v>
+        <v>0.002633</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>0.0012</v>
+        <v>0.01076</v>
       </c>
       <c r="B94">
-        <v>0.000157</v>
+        <v>0.001785</v>
       </c>
       <c r="C94">
-        <v>4.5E-05</v>
+        <v>0.000604</v>
       </c>
       <c r="D94">
-        <v>9.500000000000001E-05</v>
+        <v>0.002064</v>
       </c>
       <c r="E94">
-        <v>0.000213</v>
+        <v>0.002789</v>
       </c>
       <c r="F94">
-        <v>0.000172</v>
+        <v>0.001581</v>
       </c>
       <c r="G94">
-        <v>0.000115</v>
+        <v>0.00149</v>
       </c>
       <c r="H94">
-        <v>0.000188</v>
+        <v>0.001004</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>0.000627</v>
+        <v>0.005626</v>
       </c>
       <c r="B95">
-        <v>6.2E-05</v>
+        <v>0.000613</v>
       </c>
       <c r="C95">
-        <v>1.1E-05</v>
+        <v>0.000112</v>
       </c>
       <c r="D95">
-        <v>5.5E-05</v>
+        <v>0.000626</v>
       </c>
       <c r="E95">
-        <v>7.499999999999999E-05</v>
+        <v>0.000816</v>
       </c>
       <c r="F95">
-        <v>6.600000000000001E-05</v>
+        <v>0.00059</v>
       </c>
       <c r="G95">
-        <v>4.4E-05</v>
+        <v>0.000553</v>
       </c>
       <c r="H95">
-        <v>6.999999999999999E-05</v>
+        <v>0.00048</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>0.002857</v>
+        <v>0.028537</v>
       </c>
       <c r="B96">
-        <v>0.001437</v>
+        <v>0.021048</v>
       </c>
       <c r="C96">
-        <v>0.000599</v>
+        <v>0.010631</v>
       </c>
       <c r="D96">
-        <v>0.000507</v>
+        <v>0.027727</v>
       </c>
       <c r="E96">
-        <v>0.001998</v>
+        <v>0.038335</v>
       </c>
       <c r="F96">
-        <v>0.001083</v>
+        <v>0.014701</v>
       </c>
       <c r="G96">
-        <v>0.001459</v>
+        <v>0.015853</v>
       </c>
       <c r="H96">
-        <v>0.002138</v>
+        <v>0.008621999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>0.001794</v>
+        <v>0.020075</v>
       </c>
       <c r="B97">
-        <v>0.000527</v>
+        <v>0.007811</v>
       </c>
       <c r="C97">
-        <v>0.000185</v>
+        <v>0.003398</v>
       </c>
       <c r="D97">
-        <v>0.000216</v>
+        <v>0.009946</v>
       </c>
       <c r="E97">
-        <v>0.00073</v>
+        <v>0.013194</v>
       </c>
       <c r="F97">
-        <v>0.000512</v>
+        <v>0.006408</v>
       </c>
       <c r="G97">
-        <v>0.000472</v>
+        <v>0.006083</v>
       </c>
       <c r="H97">
-        <v>0.000702</v>
+        <v>0.003426</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>0.001136</v>
+        <v>0.012707</v>
       </c>
       <c r="B98">
-        <v>0.000203</v>
+        <v>0.002624</v>
       </c>
       <c r="C98">
-        <v>5.8E-05</v>
+        <v>0.000889</v>
       </c>
       <c r="D98">
-        <v>0.000108</v>
+        <v>0.003102</v>
       </c>
       <c r="E98">
-        <v>0.00027</v>
+        <v>0.004038</v>
       </c>
       <c r="F98">
-        <v>0.000225</v>
+        <v>0.002365</v>
       </c>
       <c r="G98">
-        <v>0.000166</v>
+        <v>0.002205</v>
       </c>
       <c r="H98">
-        <v>0.000244</v>
+        <v>0.001408</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>0.000606</v>
+        <v>0.006784</v>
       </c>
       <c r="B99">
-        <v>8.000000000000001E-05</v>
+        <v>0.000894</v>
       </c>
       <c r="C99">
-        <v>1.5E-05</v>
+        <v>0.0002</v>
       </c>
       <c r="D99">
-        <v>6.1E-05</v>
+        <v>0.000959</v>
       </c>
       <c r="E99">
-        <v>9.899999999999999E-05</v>
+        <v>0.001227</v>
       </c>
       <c r="F99">
-        <v>8.8E-05</v>
+        <v>0.00085</v>
       </c>
       <c r="G99">
-        <v>6.1E-05</v>
+        <v>0.0008140000000000001</v>
       </c>
       <c r="H99">
-        <v>8.8E-05</v>
+        <v>0.000618</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>0.001978</v>
+        <v>0.031981</v>
       </c>
       <c r="B100">
-        <v>0.001286</v>
+        <v>0.024237</v>
       </c>
       <c r="C100">
-        <v>0.0005</v>
+        <v>0.011641</v>
       </c>
       <c r="D100">
-        <v>0.000474</v>
+        <v>0.034464</v>
       </c>
       <c r="E100">
-        <v>0.001665</v>
+        <v>0.040853</v>
       </c>
       <c r="F100">
-        <v>0.0009890000000000001</v>
+        <v>0.018848</v>
       </c>
       <c r="G100">
-        <v>0.001434</v>
+        <v>0.017847</v>
       </c>
       <c r="H100">
-        <v>0.001866</v>
+        <v>0.009171</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>0.001435</v>
+        <v>0.023206</v>
       </c>
       <c r="B101">
-        <v>0.000604</v>
+        <v>0.010733</v>
       </c>
       <c r="C101">
-        <v>0.000201</v>
+        <v>0.004458</v>
       </c>
       <c r="D101">
-        <v>0.000248</v>
+        <v>0.014344</v>
       </c>
       <c r="E101">
-        <v>0.000791</v>
+        <v>0.01716</v>
       </c>
       <c r="F101">
-        <v>0.000575</v>
+        <v>0.009257</v>
       </c>
       <c r="G101">
-        <v>0.000601</v>
+        <v>0.008208999999999999</v>
       </c>
       <c r="H101">
-        <v>0.0008050000000000001</v>
+        <v>0.004693</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>0.000956</v>
+        <v>0.015462</v>
       </c>
       <c r="B102">
-        <v>0.000276</v>
+        <v>0.00442</v>
       </c>
       <c r="C102">
-        <v>7.8E-05</v>
+        <v>0.001528</v>
       </c>
       <c r="D102">
-        <v>0.000136</v>
+        <v>0.005561</v>
       </c>
       <c r="E102">
-        <v>0.000359</v>
+        <v>0.006627</v>
       </c>
       <c r="F102">
-        <v>0.000302</v>
+        <v>0.004064</v>
       </c>
       <c r="G102">
-        <v>0.000253</v>
+        <v>0.003598</v>
       </c>
       <c r="H102">
-        <v>0.000332</v>
+        <v>0.002252</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>0.000535</v>
+        <v>0.008643</v>
       </c>
       <c r="B103">
-        <v>0.000118</v>
+        <v>0.001657</v>
       </c>
       <c r="C103">
-        <v>2.6E-05</v>
+        <v>0.000452</v>
       </c>
       <c r="D103">
-        <v>7.7E-05</v>
+        <v>0.001941</v>
       </c>
       <c r="E103">
-        <v>0.00015</v>
+        <v>0.002326</v>
       </c>
       <c r="F103">
-        <v>0.000135</v>
+        <v>0.00156</v>
       </c>
       <c r="G103">
-        <v>0.000101</v>
+        <v>0.001471</v>
       </c>
       <c r="H103">
-        <v>0.000127</v>
+        <v>0.0009879999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104">
-        <v>0.004246</v>
+        <v>0.016497</v>
       </c>
       <c r="B104">
-        <v>0.001637</v>
+        <v>0.023491</v>
       </c>
       <c r="C104">
-        <v>0.001084</v>
+        <v>0.019164</v>
       </c>
       <c r="D104">
-        <v>0.000967</v>
+        <v>0.045057</v>
       </c>
       <c r="E104">
-        <v>0.003655</v>
+        <v>0.048773</v>
       </c>
       <c r="F104">
-        <v>0.000928</v>
+        <v>0.008422000000000001</v>
       </c>
       <c r="G104">
-        <v>0.000748</v>
+        <v>0.007631</v>
       </c>
       <c r="H104">
-        <v>0.001888</v>
+        <v>0.007575</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>0.001906</v>
+        <v>0.007407</v>
       </c>
       <c r="B105">
-        <v>0.000387</v>
+        <v>0.004434</v>
       </c>
       <c r="C105">
-        <v>0.000183</v>
+        <v>0.002861</v>
       </c>
       <c r="D105">
-        <v>0.000303</v>
+        <v>0.007508</v>
       </c>
       <c r="E105">
-        <v>0.000715</v>
+        <v>0.008326999999999999</v>
       </c>
       <c r="F105">
-        <v>0.000303</v>
+        <v>0.002404</v>
       </c>
       <c r="G105">
-        <v>0.000179</v>
+        <v>0.001954</v>
       </c>
       <c r="H105">
-        <v>0.000437</v>
+        <v>0.001977</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106">
-        <v>0.001028</v>
+        <v>0.003683</v>
       </c>
       <c r="B106">
-        <v>0.000101</v>
+        <v>0.000919</v>
       </c>
       <c r="C106">
-        <v>3.1E-05</v>
+        <v>0.000373</v>
       </c>
       <c r="D106">
-        <v>0.000116</v>
+        <v>0.001401</v>
       </c>
       <c r="E106">
-        <v>0.000134</v>
+        <v>0.001318</v>
       </c>
       <c r="F106">
-        <v>9.500000000000001E-05</v>
+        <v>0.000726</v>
       </c>
       <c r="G106">
-        <v>4.5E-05</v>
+        <v>0.000454</v>
       </c>
       <c r="H106">
-        <v>0.000117</v>
+        <v>0.000696</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107">
-        <v>0.000438</v>
+        <v>0.001701</v>
       </c>
       <c r="B107">
-        <v>3.5E-05</v>
+        <v>0.000271</v>
       </c>
       <c r="C107">
-        <v>1.2E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="D107">
-        <v>5.2E-05</v>
+        <v>0.000296</v>
       </c>
       <c r="E107">
-        <v>3.2E-05</v>
+        <v>0.000279</v>
       </c>
       <c r="F107">
-        <v>3.5E-05</v>
+        <v>0.000288</v>
       </c>
       <c r="G107">
-        <v>1.6E-05</v>
+        <v>0.000157</v>
       </c>
       <c r="H107">
-        <v>4.2E-05</v>
+        <v>0.000334</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>0.004297</v>
+        <v>0.021513</v>
       </c>
       <c r="B108">
-        <v>0.001582</v>
+        <v>0.021317</v>
       </c>
       <c r="C108">
-        <v>0.000884</v>
+        <v>0.015684</v>
       </c>
       <c r="D108">
-        <v>0.00078</v>
+        <v>0.034507</v>
       </c>
       <c r="E108">
-        <v>0.003094</v>
+        <v>0.045536</v>
       </c>
       <c r="F108">
-        <v>0.001012</v>
+        <v>0.009346999999999999</v>
       </c>
       <c r="G108">
-        <v>0.000947</v>
+        <v>0.009756000000000001</v>
       </c>
       <c r="H108">
-        <v>0.002077</v>
+        <v>0.007441</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109">
-        <v>0.002235</v>
+        <v>0.014767</v>
       </c>
       <c r="B109">
-        <v>0.000418</v>
+        <v>0.004971</v>
       </c>
       <c r="C109">
-        <v>0.000169</v>
+        <v>0.0027</v>
       </c>
       <c r="D109">
-        <v>0.000222</v>
+        <v>0.006694</v>
       </c>
       <c r="E109">
-        <v>0.000682</v>
+        <v>0.009415</v>
       </c>
       <c r="F109">
-        <v>0.000388</v>
+        <v>0.003381</v>
       </c>
       <c r="G109">
-        <v>0.000269</v>
+        <v>0.003292</v>
       </c>
       <c r="H109">
-        <v>0.000528</v>
+        <v>0.002074</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <v>0.001725</v>
+        <v>0.007919000000000001</v>
       </c>
       <c r="B110">
-        <v>0.000178</v>
+        <v>0.001598</v>
       </c>
       <c r="C110">
-        <v>4.7E-05</v>
+        <v>0.000566</v>
       </c>
       <c r="D110">
-        <v>0.00016</v>
+        <v>0.00205</v>
       </c>
       <c r="E110">
-        <v>0.000242</v>
+        <v>0.002489</v>
       </c>
       <c r="F110">
-        <v>0.000164</v>
+        <v>0.001217</v>
       </c>
       <c r="G110">
-        <v>0.000107</v>
+        <v>0.001104</v>
       </c>
       <c r="H110">
-        <v>0.000216</v>
+        <v>0.001133</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <v>0.000809</v>
+        <v>0.004855</v>
       </c>
       <c r="B111">
-        <v>4.9E-05</v>
+        <v>0.000397</v>
       </c>
       <c r="C111">
-        <v>1.1E-05</v>
+        <v>5.8E-05</v>
       </c>
       <c r="D111">
-        <v>5.6E-05</v>
+        <v>0.000405</v>
       </c>
       <c r="E111">
-        <v>5.4E-05</v>
+        <v>0.0004929999999999999</v>
       </c>
       <c r="F111">
-        <v>4.9E-05</v>
+        <v>0.000391</v>
       </c>
       <c r="G111">
-        <v>2.8E-05</v>
+        <v>0.000311</v>
       </c>
       <c r="H111">
-        <v>5.8E-05</v>
+        <v>0.000387</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112">
-        <v>0.000422</v>
+        <v>0.002113</v>
       </c>
       <c r="B112">
-        <v>2.1E-05</v>
+        <v>0.000162</v>
       </c>
       <c r="C112">
-        <v>8E-06</v>
+        <v>4.2E-05</v>
       </c>
       <c r="D112">
-        <v>3.5E-05</v>
+        <v>0.000128</v>
       </c>
       <c r="E112">
-        <v>1.8E-05</v>
+        <v>0.000148</v>
       </c>
       <c r="F112">
-        <v>2E-05</v>
+        <v>0.000185</v>
       </c>
       <c r="G112">
-        <v>1.2E-05</v>
+        <v>0.000117</v>
       </c>
       <c r="H112">
-        <v>2.3E-05</v>
+        <v>0.000232</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113">
-        <v>0.002265</v>
+        <v>0.018283</v>
       </c>
       <c r="B113">
-        <v>0.000688</v>
+        <v>0.007993999999999999</v>
       </c>
       <c r="C113">
-        <v>0.000249</v>
+        <v>0.003423</v>
       </c>
       <c r="D113">
-        <v>0.000312</v>
+        <v>0.009405</v>
       </c>
       <c r="E113">
-        <v>0.000962</v>
+        <v>0.013975</v>
       </c>
       <c r="F113">
-        <v>0.000605</v>
+        <v>0.00592</v>
       </c>
       <c r="G113">
-        <v>0.000597</v>
+        <v>0.006431</v>
       </c>
       <c r="H113">
-        <v>0.000966</v>
+        <v>0.004241</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <v>0.001305</v>
+        <v>0.010536</v>
       </c>
       <c r="B114">
-        <v>0.000206</v>
+        <v>0.002191</v>
       </c>
       <c r="C114">
-        <v>5.9E-05</v>
+        <v>0.000734</v>
       </c>
       <c r="D114">
-        <v>0.000124</v>
+        <v>0.002528</v>
       </c>
       <c r="E114">
-        <v>0.000277</v>
+        <v>0.003435</v>
       </c>
       <c r="F114">
-        <v>0.000217</v>
+        <v>0.001877</v>
       </c>
       <c r="G114">
-        <v>0.000153</v>
+        <v>0.001814</v>
       </c>
       <c r="H114">
-        <v>0.000257</v>
+        <v>0.001301</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <v>0.000706</v>
+        <v>0.005702</v>
       </c>
       <c r="B115">
-        <v>6.999999999999999E-05</v>
+        <v>0.000645</v>
       </c>
       <c r="C115">
-        <v>1.3E-05</v>
+        <v>0.000119</v>
       </c>
       <c r="D115">
-        <v>6.2E-05</v>
+        <v>0.000671</v>
       </c>
       <c r="E115">
-        <v>8.3E-05</v>
+        <v>0.000858</v>
       </c>
       <c r="F115">
-        <v>7.499999999999999E-05</v>
+        <v>0.000619</v>
       </c>
       <c r="G115">
-        <v>4.8E-05</v>
+        <v>0.000559</v>
       </c>
       <c r="H115">
-        <v>8.2E-05</v>
+        <v>0.000518</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>0.000346</v>
+        <v>0.002797</v>
       </c>
       <c r="B116">
-        <v>2.8E-05</v>
+        <v>0.000236</v>
       </c>
       <c r="C116">
-        <v>7E-06</v>
+        <v>2.9E-05</v>
       </c>
       <c r="D116">
-        <v>3.9E-05</v>
+        <v>0.000197</v>
       </c>
       <c r="E116">
-        <v>2.8E-05</v>
+        <v>0.000267</v>
       </c>
       <c r="F116">
-        <v>2.5E-05</v>
+        <v>0.000242</v>
       </c>
       <c r="G116">
-        <v>1.7E-05</v>
+        <v>0.00021</v>
       </c>
       <c r="H116">
-        <v>3E-05</v>
+        <v>0.000266</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <v>0.000152</v>
+        <v>0.001518</v>
       </c>
       <c r="B117">
-        <v>2E-05</v>
+        <v>0.000181</v>
       </c>
       <c r="C117">
-        <v>9E-06</v>
+        <v>2.9E-05</v>
       </c>
       <c r="D117">
-        <v>3.7E-05</v>
+        <v>0.000129</v>
       </c>
       <c r="E117">
-        <v>1.9E-05</v>
+        <v>0.000203</v>
       </c>
       <c r="F117">
-        <v>1.4E-05</v>
+        <v>0.000182</v>
       </c>
       <c r="G117">
-        <v>1.2E-05</v>
+        <v>0.00018</v>
       </c>
       <c r="H117">
-        <v>1.7E-05</v>
+        <v>0.000211</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <v>0.001344</v>
+        <v>0.013431</v>
       </c>
       <c r="B118">
-        <v>0.000216</v>
+        <v>0.002566</v>
       </c>
       <c r="C118">
-        <v>6.4E-05</v>
+        <v>0.000901</v>
       </c>
       <c r="D118">
-        <v>0.000118</v>
+        <v>0.003009</v>
       </c>
       <c r="E118">
-        <v>0.000293</v>
+        <v>0.004049</v>
       </c>
       <c r="F118">
-        <v>0.000234</v>
+        <v>0.002242</v>
       </c>
       <c r="G118">
-        <v>0.000169</v>
+        <v>0.002131</v>
       </c>
       <c r="H118">
-        <v>0.000267</v>
+        <v>0.001397</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>0.001027</v>
+        <v>0.009209999999999999</v>
       </c>
       <c r="B119">
-        <v>8.899999999999999E-05</v>
+        <v>0.000874</v>
       </c>
       <c r="C119">
-        <v>1.8E-05</v>
+        <v>0.000175</v>
       </c>
       <c r="D119">
-        <v>6.999999999999999E-05</v>
+        <v>0.000927</v>
       </c>
       <c r="E119">
-        <v>0.000107</v>
+        <v>0.001178</v>
       </c>
       <c r="F119">
-        <v>9.7E-05</v>
+        <v>0.000834</v>
       </c>
       <c r="G119">
-        <v>6.499999999999999E-05</v>
+        <v>0.000775</v>
       </c>
       <c r="H119">
-        <v>0.000104</v>
+        <v>0.000657</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <v>0.000681</v>
+        <v>0.006107</v>
       </c>
       <c r="B120">
-        <v>3.8E-05</v>
+        <v>0.000349</v>
       </c>
       <c r="C120">
-        <v>6E-06</v>
+        <v>3.1E-05</v>
       </c>
       <c r="D120">
-        <v>4.4E-05</v>
+        <v>0.000323</v>
       </c>
       <c r="E120">
-        <v>4.1E-05</v>
+        <v>0.000404</v>
       </c>
       <c r="F120">
-        <v>3.8E-05</v>
+        <v>0.000354</v>
       </c>
       <c r="G120">
-        <v>2.7E-05</v>
+        <v>0.000319</v>
       </c>
       <c r="H120">
-        <v>4.1E-05</v>
+        <v>0.000345</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>0.000314</v>
+        <v>0.002813</v>
       </c>
       <c r="B121">
-        <v>2.3E-05</v>
+        <v>0.000202</v>
       </c>
       <c r="C121">
-        <v>7E-06</v>
+        <v>2.6E-05</v>
       </c>
       <c r="D121">
-        <v>3.6E-05</v>
+        <v>0.000159</v>
       </c>
       <c r="E121">
-        <v>2.2E-05</v>
+        <v>0.000213</v>
       </c>
       <c r="F121">
-        <v>1.9E-05</v>
+        <v>0.000212</v>
       </c>
       <c r="G121">
-        <v>1.5E-05</v>
+        <v>0.00019</v>
       </c>
       <c r="H121">
-        <v>2.1E-05</v>
+        <v>0.000238</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>0.001757</v>
+        <v>0.017548</v>
       </c>
       <c r="B122">
-        <v>0.000311</v>
+        <v>0.003573</v>
       </c>
       <c r="C122">
-        <v>9.000000000000001E-05</v>
+        <v>0.00106</v>
       </c>
       <c r="D122">
-        <v>0.000161</v>
+        <v>0.003992</v>
       </c>
       <c r="E122">
-        <v>0.000396</v>
+        <v>0.005363</v>
       </c>
       <c r="F122">
-        <v>0.000322</v>
+        <v>0.003161</v>
       </c>
       <c r="G122">
-        <v>0.000272</v>
+        <v>0.003151</v>
       </c>
       <c r="H122">
-        <v>0.000406</v>
+        <v>0.002197</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <v>0.001088</v>
+        <v>0.012173</v>
       </c>
       <c r="B123">
-        <v>0.000119</v>
+        <v>0.001321</v>
       </c>
       <c r="C123">
-        <v>2.6E-05</v>
+        <v>0.000296</v>
       </c>
       <c r="D123">
-        <v>8.000000000000001E-05</v>
+        <v>0.001449</v>
       </c>
       <c r="E123">
-        <v>0.000146</v>
+        <v>0.001802</v>
       </c>
       <c r="F123">
-        <v>0.000134</v>
+        <v>0.001258</v>
       </c>
       <c r="G123">
-        <v>9.6E-05</v>
+        <v>0.001187</v>
       </c>
       <c r="H123">
-        <v>0.000138</v>
+        <v>0.00091</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
-        <v>0.000694</v>
+        <v>0.007765</v>
       </c>
       <c r="B124">
-        <v>5.3E-05</v>
+        <v>0.000543</v>
       </c>
       <c r="C124">
-        <v>7E-06</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="D124">
-        <v>5.1E-05</v>
+        <v>0.000544</v>
       </c>
       <c r="E124">
-        <v>6.1E-05</v>
+        <v>0.00066</v>
       </c>
       <c r="F124">
-        <v>5.7E-05</v>
+        <v>0.000537</v>
       </c>
       <c r="G124">
-        <v>4.1E-05</v>
+        <v>0.000509</v>
       </c>
       <c r="H124">
-        <v>5.7E-05</v>
+        <v>0.000463</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>0.000326</v>
+        <v>0.003653</v>
       </c>
       <c r="B125">
-        <v>2.9E-05</v>
+        <v>0.000279</v>
       </c>
       <c r="C125">
-        <v>6E-06</v>
+        <v>2.2E-05</v>
       </c>
       <c r="D125">
-        <v>4E-05</v>
+        <v>0.000243</v>
       </c>
       <c r="E125">
-        <v>3E-05</v>
+        <v>0.00031</v>
       </c>
       <c r="F125">
-        <v>2.5E-05</v>
+        <v>0.000282</v>
       </c>
       <c r="G125">
-        <v>2.1E-05</v>
+        <v>0.000274</v>
       </c>
       <c r="H125">
-        <v>2.7E-05</v>
+        <v>0.000287</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126">
-        <v>0.001303</v>
+        <v>0.021063</v>
       </c>
       <c r="B126">
-        <v>0.000351</v>
+        <v>0.005314</v>
       </c>
       <c r="C126">
-        <v>0.000102</v>
+        <v>0.001736</v>
       </c>
       <c r="D126">
-        <v>0.000167</v>
+        <v>0.006556</v>
       </c>
       <c r="E126">
-        <v>0.000445</v>
+        <v>0.007865</v>
       </c>
       <c r="F126">
-        <v>0.000368</v>
+        <v>0.00488</v>
       </c>
       <c r="G126">
-        <v>0.00033</v>
+        <v>0.004403</v>
       </c>
       <c r="H126">
-        <v>0.000442</v>
+        <v>0.002864</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127">
-        <v>0.000907</v>
+        <v>0.014658</v>
       </c>
       <c r="B127">
-        <v>0.000166</v>
+        <v>0.00229</v>
       </c>
       <c r="C127">
-        <v>3.9E-05</v>
+        <v>0.000601</v>
       </c>
       <c r="D127">
-        <v>9.899999999999999E-05</v>
+        <v>0.002706</v>
       </c>
       <c r="E127">
-        <v>0.000207</v>
+        <v>0.003162</v>
       </c>
       <c r="F127">
-        <v>0.000188</v>
+        <v>0.002176</v>
       </c>
       <c r="G127">
-        <v>0.000147</v>
+        <v>0.001998</v>
       </c>
       <c r="H127">
-        <v>0.00019</v>
+        <v>0.001409</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128">
-        <v>0.000592</v>
+        <v>0.009572000000000001</v>
       </c>
       <c r="B128">
-        <v>8.3E-05</v>
+        <v>0.001041</v>
       </c>
       <c r="C128">
-        <v>1.3E-05</v>
+        <v>0.000196</v>
       </c>
       <c r="D128">
-        <v>6.600000000000001E-05</v>
+        <v>0.001163</v>
       </c>
       <c r="E128">
-        <v>9.899999999999999E-05</v>
+        <v>0.001328</v>
       </c>
       <c r="F128">
-        <v>9.3E-05</v>
+        <v>0.001002</v>
       </c>
       <c r="G128">
-        <v>7.1E-05</v>
+        <v>0.000966</v>
       </c>
       <c r="H128">
-        <v>8.7E-05</v>
+        <v>0.000744</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129">
-        <v>0.000305</v>
+        <v>0.004939</v>
       </c>
       <c r="B129">
-        <v>4.3E-05</v>
+        <v>0.0005</v>
       </c>
       <c r="C129">
-        <v>5E-06</v>
+        <v>5.6E-05</v>
       </c>
       <c r="D129">
-        <v>4.8E-05</v>
+        <v>0.000506</v>
       </c>
       <c r="E129">
-        <v>4.9E-05</v>
+        <v>0.000593</v>
       </c>
       <c r="F129">
-        <v>4.3E-05</v>
+        <v>0.000483</v>
       </c>
       <c r="G129">
-        <v>3.6E-05</v>
+        <v>0.000502</v>
       </c>
       <c r="H129">
-        <v>4E-05</v>
+        <v>0.000417</v>
       </c>
     </row>
   </sheetData>
